--- a/public/data/profit/profit_table_zambia.xlsx
+++ b/public/data/profit/profit_table_zambia.xlsx
@@ -1530,40 +1530,40 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-41.78</v>
+        <v>-26.92</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-17.34</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-14.22</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-4.13</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-14.34</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-17.97</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-16.47</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-17.41</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-11.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1610,40 +1610,40 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-17.27</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.92</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-3.17</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.72</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-5.56</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>209.18</v>
+        <v>227.67</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.78</v>
+        <v>157.42</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1690,49 +1690,49 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.1</v>
+        <v>412.2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>99.09</v>
+        <v>183.76</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-127.23</v>
+        <v>-68.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.92</v>
+        <v>115.55</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-80.47</v>
+        <v>-29.82</v>
       </c>
       <c r="T4" t="n">
-        <v>-98.25</v>
+        <v>-50.76</v>
       </c>
       <c r="U4" t="n">
-        <v>58.57</v>
+        <v>131.69</v>
       </c>
       <c r="V4" t="n">
-        <v>-43.99</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>61.92</v>
+        <v>139.3</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>297.87</v>
+        <v>745.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>-52.99</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="5">
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-25.95</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-39.71</v>
+        <v>27.66</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-52.38</v>
+        <v>4.83</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-25.68</v>
+        <v>65.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>-41.88</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1794,22 +1794,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-46.57</v>
+        <v>17.62</v>
       </c>
       <c r="U5" t="n">
-        <v>-50.22</v>
+        <v>18.22</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>-52.99</v>
+        <v>3.15</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-22.15</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1844,55 +1844,55 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-22.95</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-33.22</v>
+        <v>14.69</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-28.3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-44.19</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.17</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-29.61</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-20.11</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-26.45</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.78</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1909,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-40.37</v>
+        <v>-20.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-35.84</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1924,55 +1924,55 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-48.11</v>
+        <v>34.35</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>44.91</v>
+        <v>109.02</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-23.67</v>
+        <v>59.23</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-55.06</v>
+        <v>-6.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>171.71</v>
+        <v>486.18</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-40.36</v>
+        <v>23.57</v>
       </c>
       <c r="T7" t="n">
-        <v>-64.33</v>
+        <v>-33.01</v>
       </c>
       <c r="U7" t="n">
-        <v>18.14</v>
+        <v>153.39</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-21.2</v>
+        <v>64.85</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.78</v>
+        <v>313.09</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.96</v>
+        <v>210.18</v>
       </c>
     </row>
     <row r="8">
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.75</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2010,40 +2010,40 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-24.03</v>
+        <v>10.26</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-17.57</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-17.46</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-15.84</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-19.19</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-16.59</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-18.03</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2069,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-56.94</v>
+        <v>-23</v>
       </c>
       <c r="F9" t="n">
-        <v>1034.34</v>
+        <v>946.73</v>
       </c>
       <c r="G9" t="n">
-        <v>-67.29</v>
+        <v>-2.08</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2084,55 +2084,55 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-27.22</v>
+        <v>67.83</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>240.44</v>
+        <v>254.24</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>27.39</v>
+        <v>102.94</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-50.96</v>
+        <v>-12.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1241.7</v>
+        <v>1829.98</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>27.08</v>
+        <v>103.56</v>
       </c>
       <c r="T9" t="n">
-        <v>-67.15</v>
+        <v>-32.69</v>
       </c>
       <c r="U9" t="n">
-        <v>202.17</v>
+        <v>332.57</v>
       </c>
       <c r="V9" t="n">
-        <v>-51.29</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>15.3</v>
+        <v>85.2</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>287.81</v>
+        <v>1117.94</v>
       </c>
       <c r="Z9" t="n">
-        <v>344.45</v>
+        <v>587.56</v>
       </c>
     </row>
     <row r="10">
@@ -2164,55 +2164,55 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-27.96</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-67.51</v>
+        <v>-25.56</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-46.2</v>
+        <v>-14.66</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-67.33</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-15.51</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-65.44</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-47.97</v>
+        <v>-25.56</v>
       </c>
       <c r="U10" t="n">
-        <v>-42.32</v>
+        <v>-0.9</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-43.56</v>
+        <v>-6.14</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.76</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-16.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2229,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-98.2</v>
+        <v>-51.74</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.84</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2244,55 +2244,55 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-32.37</v>
+        <v>113.29</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>107.84</v>
+        <v>219.93</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.81</v>
+        <v>106.46</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-101.32</v>
+        <v>-42.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>-14.97</v>
+        <v>86.42</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-92.61</v>
+        <v>-38.81</v>
       </c>
       <c r="T11" t="n">
-        <v>-106.81</v>
+        <v>-59.99</v>
       </c>
       <c r="U11" t="n">
-        <v>18.34</v>
+        <v>153.83</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-60.56</v>
+        <v>12.82</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>161.41</v>
+        <v>710.72</v>
       </c>
       <c r="Z11" t="n">
-        <v>427.6</v>
+        <v>678.79</v>
       </c>
     </row>
     <row r="12">
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>260.42</v>
+        <v>287.32</v>
       </c>
       <c r="G12" t="n">
-        <v>-19.11</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2324,55 +2324,55 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-32.8</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>225.1</v>
+        <v>290.32</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>56.39</v>
+        <v>142.46</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-102.65</v>
+        <v>-79.21</v>
       </c>
       <c r="Q12" t="n">
-        <v>542.6</v>
+        <v>662.82</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-68.97</v>
+        <v>-35.03</v>
       </c>
       <c r="T12" t="n">
-        <v>-80.96</v>
+        <v>-51.67</v>
       </c>
       <c r="U12" t="n">
-        <v>38.7</v>
+        <v>114.82</v>
       </c>
       <c r="V12" t="n">
-        <v>-39.25</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>57.05</v>
+        <v>141.51</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.45</v>
+        <v>565.61</v>
       </c>
       <c r="Z12" t="n">
-        <v>-18.78</v>
+        <v>39.09</v>
       </c>
     </row>
     <row r="13">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-35.41</v>
+        <v>-10.76</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2490,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-21.29</v>
+        <v>3.32</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-11.85</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-6.46</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -2511,19 +2511,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.41</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-11.72</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-10.86</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-12.26</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-17.7</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-27.1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-13.48</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2730,19 +2730,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-23.76</v>
+        <v>-6.92</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-7.88</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-7.88</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.88</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.88</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2792,13 +2792,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-17.49</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-17.06</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-13.54</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-40.82</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-24.33</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3050,19 +3050,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-48.92</v>
+        <v>-10.95</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-28.84</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-40.37</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-41.46</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-28.51</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-29.01</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3130,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-10.9</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.85</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-4.88</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3151,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-4.78</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-4.05</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-3.44</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-4.04</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-13.94</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-13.92</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-86.51</v>
+        <v>-175.08</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-40.21</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-38.17</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3290,19 +3290,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-25.39</v>
+        <v>-6.36</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-6.2</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-6.46</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-6.41</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-6.34</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>-5.89</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-6.31</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-24.03</v>
+        <v>-7.77</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-19.55</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3444,28 +3444,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.78</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-11.29</v>
+        <v>-12.62</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-6.54</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-7.9</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-7.71</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-6.35</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.18</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>-6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.54</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3592,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-6.61</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3610,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-18.8</v>
+        <v>-8.23</v>
       </c>
       <c r="M28" t="n">
-        <v>-4.07</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-6.43</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3672,67 +3672,67 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-17.68</v>
+        <v>-2.42</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-10.16</v>
+        <v>8.49</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-8.87</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-18.65</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.74</v>
+        <v>14.59</v>
       </c>
       <c r="M29" t="n">
-        <v>22.14</v>
+        <v>55.53</v>
       </c>
       <c r="N29" t="n">
-        <v>-9.12</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-8.94</v>
+        <v>10.34</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.46</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-22.59</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-21.8</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-9.46</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-7.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3770,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-27.04</v>
+        <v>-17.44</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-3.24</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-3.25</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3850,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-15.79</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-5.15</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3865,25 +3865,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.96</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-3.88</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-5.01</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-4.79</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-3.71</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-8.28</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.93</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3930,16 +3930,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-14.57</v>
+        <v>-9.85</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.31</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-8.3</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3986,73 +3986,73 @@
         <v>116</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.18</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-8.57</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.01</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>-3.19</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.59</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-5.4</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-2.05</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-6.44</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>-6.59</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.75</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-6.53</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-6.63</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>-4.81</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-5.69</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>-3.07</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>-3.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-40.52</v>
+        <v>-16.16</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-66.91</v>
+        <v>-35.05</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-56.73</v>
+        <v>-35.05</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-11.14</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-11.26</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-11.03</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-11.16</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-20.65</v>
+        <v>-14.77</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4247,25 +4247,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>-11.87</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-40.17</v>
+        <v>-25.89</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-11.78</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-11.84</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-5.27</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -4274,16 +4274,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-11.87</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>-16.01</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>-8.33</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>-11.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.84</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.26</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4345,25 +4345,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.48</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4392,67 +4392,67 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-12.66</v>
+        <v>-7.3</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5.35</v>
+        <v>6.02</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-4.79</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.25</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-17.02</v>
+        <v>-6.22</v>
       </c>
       <c r="M38" t="n">
-        <v>4.33</v>
+        <v>44.99</v>
       </c>
       <c r="N38" t="n">
-        <v>-7.81</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>-4.58</v>
+        <v>8.86</v>
       </c>
       <c r="P38" t="n">
-        <v>-8.17</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.01</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.57</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-9.69</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-7.03</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>-6.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4466,7 +4466,7 @@
         <v>123</v>
       </c>
       <c r="D39" t="n">
-        <v>63.35</v>
+        <v>263.38</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-21.37</v>
+        <v>66.71</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4490,19 +4490,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-23.67</v>
+        <v>112.75</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-10.14</v>
+        <v>99.37</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-94.51</v>
+        <v>-60.27</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -4511,25 +4511,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-76.95</v>
+        <v>-15.87</v>
       </c>
       <c r="T39" t="n">
-        <v>-93.46</v>
+        <v>-57.42</v>
       </c>
       <c r="U39" t="n">
-        <v>-60.88</v>
+        <v>35.71</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>-4.8</v>
+        <v>114.76</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.11</v>
+        <v>134.83</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4546,73 +4546,73 @@
         <v>124</v>
       </c>
       <c r="D40" t="n">
-        <v>-79.42</v>
+        <v>-83.7</v>
       </c>
       <c r="E40" t="n">
-        <v>-69.9</v>
+        <v>-78.58</v>
       </c>
       <c r="F40" t="n">
-        <v>-44.61</v>
+        <v>19.64</v>
       </c>
       <c r="G40" t="n">
-        <v>-17.16</v>
+        <v>98.92</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-41.78</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-40.58</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-31.04</v>
+        <v>92.09</v>
       </c>
       <c r="L40" t="n">
-        <v>712.25</v>
+        <v>713.23</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4.32</v>
+        <v>81.67</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-54.71</v>
+        <v>-15.85</v>
       </c>
       <c r="Q40" t="n">
-        <v>176.55</v>
+        <v>404.17</v>
       </c>
       <c r="R40" t="n">
-        <v>-2.77</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-45.78</v>
+        <v>8.07</v>
       </c>
       <c r="T40" t="n">
-        <v>-46.6</v>
+        <v>-6.28</v>
       </c>
       <c r="U40" t="n">
-        <v>35.24</v>
+        <v>103.91</v>
       </c>
       <c r="V40" t="n">
-        <v>7.84</v>
+        <v>203.42</v>
       </c>
       <c r="W40" t="n">
-        <v>94.22</v>
+        <v>233.65</v>
       </c>
       <c r="X40" t="n">
-        <v>-79.11</v>
+        <v>-34.48</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.68</v>
+        <v>487.66</v>
       </c>
       <c r="Z40" t="n">
-        <v>-49.96</v>
+        <v>-10.09</v>
       </c>
     </row>
     <row r="41">
@@ -4626,7 +4626,7 @@
         <v>125</v>
       </c>
       <c r="D41" t="n">
-        <v>-82.78</v>
+        <v>-22.17</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-14.31</v>
+        <v>136.61</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4650,46 +4650,46 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>349.23</v>
+        <v>438.02</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>71.67</v>
+        <v>143.94</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-5.71</v>
+        <v>55.62</v>
       </c>
       <c r="Q41" t="n">
-        <v>-18.85</v>
+        <v>35.73</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-48.96</v>
+        <v>5.36</v>
       </c>
       <c r="T41" t="n">
-        <v>-64.63</v>
+        <v>-11.66</v>
       </c>
       <c r="U41" t="n">
-        <v>-15.35</v>
+        <v>73.94</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>65.04</v>
+        <v>122.41</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-16.45</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>126</v>
       </c>
       <c r="D42" t="n">
-        <v>-82.78</v>
+        <v>-22.17</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-28.81</v>
+        <v>34.72</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4730,46 +4730,46 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>206.05</v>
+        <v>228.68</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-45.05</v>
+        <v>1.91</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>-67.96</v>
+        <v>-21.94</v>
       </c>
       <c r="Q42" t="n">
-        <v>-31.71</v>
+        <v>11.6</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>-74.94</v>
+        <v>-29.3</v>
       </c>
       <c r="T42" t="n">
-        <v>-80.27</v>
+        <v>-34.97</v>
       </c>
       <c r="U42" t="n">
-        <v>-11.51</v>
+        <v>41.8</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>-39.32</v>
+        <v>8.73</v>
       </c>
       <c r="X42" t="n">
-        <v>-28.74</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>-22.63</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>127</v>
       </c>
       <c r="D43" t="n">
-        <v>10.04</v>
+        <v>148.86</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-28.43</v>
+        <v>61.55</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4810,46 +4810,46 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>94.51</v>
+        <v>136.11</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-18.63</v>
+        <v>59.53</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-71.88</v>
+        <v>-17.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.76</v>
+        <v>262.13</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-63.7</v>
+        <v>-6.37</v>
       </c>
       <c r="T43" t="n">
-        <v>-97.25</v>
+        <v>-56.01</v>
       </c>
       <c r="U43" t="n">
-        <v>-6.31</v>
+        <v>79.48</v>
       </c>
       <c r="V43" t="n">
-        <v>-32.16</v>
+        <v>34.84</v>
       </c>
       <c r="W43" t="n">
-        <v>-43.28</v>
+        <v>23.65</v>
       </c>
       <c r="X43" t="n">
-        <v>-47.43</v>
+        <v>-23.67</v>
       </c>
       <c r="Y43" t="n">
-        <v>-18.56</v>
+        <v>74.69</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>128</v>
       </c>
       <c r="D44" t="n">
-        <v>12.62</v>
+        <v>263.38</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-18.8</v>
+        <v>98.38</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4890,46 +4890,46 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>114.36</v>
+        <v>174.02</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-19.2</v>
+        <v>46.74</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-71.5</v>
+        <v>-13.41</v>
       </c>
       <c r="Q44" t="n">
-        <v>-50.21</v>
+        <v>-4.27</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-69.1</v>
+        <v>-11.82</v>
       </c>
       <c r="T44" t="n">
-        <v>-96.57</v>
+        <v>-42.69</v>
       </c>
       <c r="U44" t="n">
-        <v>-48.3</v>
+        <v>26.04</v>
       </c>
       <c r="V44" t="n">
-        <v>-15.91</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-55.19</v>
+        <v>5.85</v>
       </c>
       <c r="X44" t="n">
-        <v>-27.99</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-13.76</v>
+        <v>118.69</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -4946,16 +4946,16 @@
         <v>129</v>
       </c>
       <c r="D45" t="n">
-        <v>-23.1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>134.55</v>
+        <v>199.95</v>
       </c>
       <c r="G45" t="n">
-        <v>-18.4</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4970,49 +4970,49 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-13.24</v>
+        <v>11.72</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-28.8</v>
+        <v>13.33</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-51.17</v>
+        <v>-32.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.48</v>
+        <v>68.36</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>-49.03</v>
+        <v>-20.81</v>
       </c>
       <c r="T45" t="n">
-        <v>-67.59</v>
+        <v>-51.26</v>
       </c>
       <c r="U45" t="n">
-        <v>-28.79</v>
+        <v>9.61</v>
       </c>
       <c r="V45" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>-16.19</v>
+        <v>26.16</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>-24.73</v>
+        <v>18.32</v>
       </c>
       <c r="Z45" t="n">
-        <v>-42.83</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="46">
@@ -5026,7 +5026,7 @@
         <v>130</v>
       </c>
       <c r="D46" t="n">
-        <v>-182.6</v>
+        <v>-81.25</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-67.58</v>
+        <v>43.46</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5050,43 +5050,43 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>963.06</v>
+        <v>747.03</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>4.05</v>
+        <v>59.15</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-78.19</v>
+        <v>-22.9</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.02</v>
+        <v>202.82</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-96.32</v>
+        <v>-40.74</v>
       </c>
       <c r="T46" t="n">
-        <v>-106.23</v>
+        <v>-50.63</v>
       </c>
       <c r="U46" t="n">
-        <v>302.35</v>
+        <v>322.63</v>
       </c>
       <c r="V46" t="n">
-        <v>-96.42</v>
+        <v>64.46</v>
       </c>
       <c r="W46" t="n">
-        <v>43.73</v>
+        <v>101.03</v>
       </c>
       <c r="X46" t="n">
-        <v>-198.48</v>
+        <v>-58.52</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5106,16 +5106,16 @@
         <v>131</v>
       </c>
       <c r="D47" t="n">
-        <v>-19.79</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>180.94</v>
+        <v>221.42</v>
       </c>
       <c r="G47" t="n">
-        <v>-38.3</v>
+        <v>56.29</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -5130,49 +5130,49 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>294.64</v>
+        <v>296.76</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>3.23</v>
+        <v>70.89</v>
       </c>
       <c r="O47" t="n">
-        <v>345.68</v>
+        <v>385.77</v>
       </c>
       <c r="P47" t="n">
-        <v>-121.12</v>
+        <v>-74.32</v>
       </c>
       <c r="Q47" t="n">
-        <v>13.47</v>
+        <v>70.95</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>-33.9</v>
+        <v>23.31</v>
       </c>
       <c r="T47" t="n">
-        <v>-99.8</v>
+        <v>-51.96</v>
       </c>
       <c r="U47" t="n">
-        <v>-55</v>
+        <v>-3.27</v>
       </c>
       <c r="V47" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>-105.99</v>
+        <v>-59.92</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>-29.01</v>
+        <v>25.73</v>
       </c>
       <c r="Z47" t="n">
-        <v>-65.23</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="48">
@@ -5186,7 +5186,7 @@
         <v>132</v>
       </c>
       <c r="D48" t="n">
-        <v>-21.08</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-33.59</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -5210,46 +5210,46 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>9.06</v>
+        <v>63.39</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-22.47</v>
+        <v>23.5</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>-32.56</v>
+        <v>-7.96</v>
       </c>
       <c r="Q48" t="n">
-        <v>-18.65</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>-34.11</v>
+        <v>-14.47</v>
       </c>
       <c r="T48" t="n">
-        <v>-39.99</v>
+        <v>-33.09</v>
       </c>
       <c r="U48" t="n">
-        <v>-23.99</v>
+        <v>18.89</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>-27.6</v>
+        <v>4.43</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>-11.38</v>
+        <v>202.04</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>-37.52</v>
+        <v>70.81</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -5290,40 +5290,40 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1167.87</v>
+        <v>601.87</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-31.38</v>
+        <v>33.28</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>-101.56</v>
+        <v>-64.45</v>
       </c>
       <c r="Q49" t="n">
-        <v>97.57</v>
+        <v>140.4</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>-42.06</v>
+        <v>13.37</v>
       </c>
       <c r="T49" t="n">
-        <v>-85.94</v>
+        <v>-46.68</v>
       </c>
       <c r="U49" t="n">
-        <v>92.9</v>
+        <v>46.09</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>40.42</v>
+        <v>137.61</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -5346,16 +5346,16 @@
         <v>134</v>
       </c>
       <c r="D50" t="n">
-        <v>-16.18</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-40.24</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>89.33</v>
+        <v>165.87</v>
       </c>
       <c r="G50" t="n">
-        <v>-13.66</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5364,55 +5364,55 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-9.32</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.17</v>
+        <v>23.21</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-17.67</v>
+        <v>6.39</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>-29.23</v>
+        <v>-30.73</v>
       </c>
       <c r="Q50" t="n">
-        <v>-3.11</v>
+        <v>45.75</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>-23.26</v>
+        <v>-8.98</v>
       </c>
       <c r="T50" t="n">
-        <v>-31.87</v>
+        <v>-34.89</v>
       </c>
       <c r="U50" t="n">
-        <v>-14.35</v>
+        <v>9.27</v>
       </c>
       <c r="V50" t="n">
-        <v>-7.41</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>-6.81</v>
+        <v>19.35</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>-13.9</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>-43.62</v>
+        <v>-38.86</v>
       </c>
     </row>
     <row r="51">
@@ -5432,10 +5432,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-151.85</v>
+        <v>-40.21</v>
       </c>
       <c r="G51" t="n">
-        <v>-11.7</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5450,49 +5450,49 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-117.32</v>
+        <v>-26.2</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-48.71</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-51.2</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>69.77</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>-65.23</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-50.87</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>-40.43</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>-45.55</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>-8.74</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>-23.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-59.18</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5524,52 +5524,52 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>-57.26</v>
+        <v>-18.42</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>17.77</v>
+        <v>86.14</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-94.11</v>
+        <v>-38.52</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>-94.01</v>
+        <v>-38.78</v>
       </c>
       <c r="Q52" t="n">
-        <v>-36.18</v>
+        <v>48.57</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>-89.29</v>
+        <v>-29.79</v>
       </c>
       <c r="T52" t="n">
-        <v>-103.37</v>
+        <v>-54.94</v>
       </c>
       <c r="U52" t="n">
-        <v>-47.59</v>
+        <v>21.65</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>-81.61</v>
+        <v>-20.04</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-44.45</v>
+        <v>71.79</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -5610,31 +5610,31 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-91.17</v>
+        <v>-21.22</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>-80.92</v>
+        <v>-39.99</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>-75.11</v>
+        <v>-18.71</v>
       </c>
       <c r="Q53" t="n">
-        <v>-57.95</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>-96.28</v>
+        <v>-54.99</v>
       </c>
       <c r="T53" t="n">
-        <v>-83.82</v>
+        <v>-49.68</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>-74.09</v>
+        <v>-15.95</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -5684,25 +5684,25 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-34.77</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-38.26</v>
+        <v>16.47</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-46.35</v>
+        <v>-18.96</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>-46.11</v>
+        <v>-19.27</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -5711,25 +5711,25 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>-44.65</v>
+        <v>-12.94</v>
       </c>
       <c r="T54" t="n">
-        <v>-47.69</v>
+        <v>-24.34</v>
       </c>
       <c r="U54" t="n">
-        <v>-45.43</v>
+        <v>-1.2</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>-44.58</v>
+        <v>-12.11</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>-32.63</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-68.22</v>
+        <v>9.83</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5764,25 +5764,25 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>-34.27</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>142.63</v>
+        <v>285.57</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-76</v>
+        <v>-36.07</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-49.11</v>
+        <v>23.83</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -5791,25 +5791,25 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>-41.95</v>
+        <v>36.58</v>
       </c>
       <c r="T55" t="n">
-        <v>-65.25</v>
+        <v>-12.6</v>
       </c>
       <c r="U55" t="n">
-        <v>102.21</v>
+        <v>270.59</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>16.14</v>
+        <v>158.73</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>-21.65</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-106.11</v>
+        <v>-20.15</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5850,19 +5850,19 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>-119.75</v>
+        <v>-14.16</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-25.35</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>-13.17</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -5871,19 +5871,19 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>-10.88</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-13.83</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>-15.72</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>-6.93</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-14.98</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5930,40 +5930,40 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-72.27</v>
+        <v>-3.85</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-67.08</v>
+        <v>-23.84</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>-64</v>
+        <v>-19.97</v>
       </c>
       <c r="Q57" t="n">
-        <v>-41.73</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>-70.59</v>
+        <v>-31.99</v>
       </c>
       <c r="T57" t="n">
-        <v>-69.17</v>
+        <v>-30.04</v>
       </c>
       <c r="U57" t="n">
-        <v>-27.94</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>-62.43</v>
+        <v>-11.21</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -6010,19 +6010,19 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-46.66</v>
+        <v>-12.91</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>-24.43</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>-24.38</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -6031,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>-24.4</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>-24.47</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>-34.86</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>-36.76</v>
+        <v>-26.84</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-19.23</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6170,19 +6170,19 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-56.94</v>
+        <v>-5.84</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-53.65</v>
+        <v>-27.38</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>-54.87</v>
+        <v>-31.2</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -6194,16 +6194,16 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>-55.42</v>
+        <v>-32.68</v>
       </c>
       <c r="U60" t="n">
-        <v>-11.24</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>-51.05</v>
+        <v>-20.56</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -6244,52 +6244,52 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-31.42</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-23.86</v>
+        <v>32.34</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-65.08</v>
+        <v>-24.18</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>-65.81</v>
+        <v>-25.53</v>
       </c>
       <c r="Q61" t="n">
-        <v>-98.65</v>
+        <v>-6.95</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>-63.95</v>
+        <v>-20.15</v>
       </c>
       <c r="T61" t="n">
-        <v>-68.4</v>
+        <v>-33.36</v>
       </c>
       <c r="U61" t="n">
-        <v>-55.16</v>
+        <v>8.35</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>-60.93</v>
+        <v>-12.53</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>-31.34</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-15.2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6330,19 +6330,19 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-59.37</v>
+        <v>-14.59</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-48.49</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>-48.28</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>-50.13</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>-48.99</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>-41.28</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>-47.63</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>-19.59</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -6410,19 +6410,19 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>-31.23</v>
+        <v>-22.96</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>-18.89</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>-18.85</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -6431,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>-18.73</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>-19.08</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>-17.46</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -6490,19 +6490,19 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-40.67</v>
+        <v>3.93</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-27.91</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>-28.25</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -6514,16 +6514,16 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>-28.31</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>-24.56</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>-24.2</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -6552,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>-153.67</v>
+        <v>-68.48</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.81</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6570,40 +6570,40 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>-136.25</v>
+        <v>-47.46</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-57.2</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>-59.36</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>-38.19</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-90.25</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>-58.87</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>-48.87</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>-54.59</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>-42.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-31.85</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -6650,19 +6650,19 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-40.74</v>
+        <v>-1.09</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>-25.26</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>-25.51</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -6671,19 +6671,19 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>-25.18</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>-25.57</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>-24.56</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>-24.2</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -6712,10 +6712,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>277.54</v>
+        <v>257.1</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.47</v>
+        <v>56.93</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6727,52 +6727,52 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>809.97</v>
+        <v>905.15</v>
       </c>
       <c r="L67" t="n">
-        <v>734.3</v>
+        <v>727.86</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>38.05</v>
+        <v>80.03</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>150.79</v>
+        <v>192.12</v>
       </c>
       <c r="Q67" t="n">
-        <v>1675.38</v>
+        <v>1709.47</v>
       </c>
       <c r="R67" t="n">
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-131.66</v>
+        <v>-88.74</v>
       </c>
       <c r="T67" t="n">
-        <v>-195.64</v>
+        <v>-151.73</v>
       </c>
       <c r="U67" t="n">
-        <v>466.1</v>
+        <v>570.36</v>
       </c>
       <c r="V67" t="n">
-        <v>-14.62</v>
+        <v>40</v>
       </c>
       <c r="W67" t="n">
-        <v>1260.74</v>
+        <v>1304.32</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>205.79</v>
+        <v>279.47</v>
       </c>
       <c r="Z67" t="n">
-        <v>49.01</v>
+        <v>85.52</v>
       </c>
     </row>
     <row r="68">
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-18.17</v>
+        <v>64.08</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6810,46 +6810,46 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>591.16</v>
+        <v>528.69</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>51.99</v>
+        <v>91.66</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>227.88</v>
+        <v>262.56</v>
       </c>
       <c r="Q68" t="n">
-        <v>1337.41</v>
+        <v>1361.38</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>-118.16</v>
+        <v>-75.24</v>
       </c>
       <c r="T68" t="n">
-        <v>-143.5</v>
+        <v>-98.67</v>
       </c>
       <c r="U68" t="n">
-        <v>514.73</v>
+        <v>569.65</v>
       </c>
       <c r="V68" t="n">
-        <v>-13.92</v>
+        <v>74.15</v>
       </c>
       <c r="W68" t="n">
-        <v>521.72</v>
+        <v>566.34</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
       </c>
       <c r="Y68" t="n">
-        <v>-5.26</v>
+        <v>59.22</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.47</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6890,46 +6890,46 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>168.49</v>
+        <v>188</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>-21.81</v>
+        <v>15.31</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>32.82</v>
+        <v>78.56</v>
       </c>
       <c r="Q69" t="n">
-        <v>327.72</v>
+        <v>422.88</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>-88.84</v>
+        <v>-56.7</v>
       </c>
       <c r="T69" t="n">
-        <v>-83.1</v>
+        <v>-52.5</v>
       </c>
       <c r="U69" t="n">
-        <v>210.16</v>
+        <v>276.21</v>
       </c>
       <c r="V69" t="n">
-        <v>-13.45</v>
+        <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>36.01</v>
+        <v>81.95</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
       </c>
       <c r="Y69" t="n">
-        <v>-52.06</v>
+        <v>-40.13</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
@@ -6952,10 +6952,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>366.16</v>
+        <v>384.4</v>
       </c>
       <c r="G70" t="n">
-        <v>-27.96</v>
+        <v>-15.23</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6964,55 +6964,55 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-23.65</v>
+        <v>63.18</v>
       </c>
       <c r="K70" t="n">
-        <v>50.47</v>
+        <v>121.39</v>
       </c>
       <c r="L70" t="n">
-        <v>245.77</v>
+        <v>289.56</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>66.03</v>
+        <v>112.58</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>-5.22</v>
+        <v>38.89</v>
       </c>
       <c r="Q70" t="n">
-        <v>85.52</v>
+        <v>137.79</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>-58.81</v>
+        <v>-18.75</v>
       </c>
       <c r="T70" t="n">
-        <v>135.34</v>
+        <v>184.46</v>
       </c>
       <c r="U70" t="n">
-        <v>80.28</v>
+        <v>156.16</v>
       </c>
       <c r="V70" t="n">
-        <v>124.18</v>
+        <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>105.66</v>
+        <v>157.18</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>300.36</v>
+        <v>652.58</v>
       </c>
       <c r="Z70" t="n">
-        <v>23.12</v>
+        <v>74.82</v>
       </c>
     </row>
     <row r="71">
@@ -7029,13 +7029,13 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-121.44</v>
+        <v>-57.56</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-48.49</v>
+        <v>-15.23</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -7044,55 +7044,55 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-52.34</v>
+        <v>21.76</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>380.13</v>
+        <v>421.55</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>96.58</v>
+        <v>145.36</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>50.35</v>
+        <v>99.95</v>
       </c>
       <c r="Q71" t="n">
-        <v>182.54</v>
+        <v>239.07</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>-78.65</v>
+        <v>-24.35</v>
       </c>
       <c r="T71" t="n">
-        <v>31.39</v>
+        <v>78.64</v>
       </c>
       <c r="U71" t="n">
-        <v>200.98</v>
+        <v>278.22</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>165.98</v>
+        <v>217.66</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
       </c>
       <c r="Y71" t="n">
-        <v>323.31</v>
+        <v>554.41</v>
       </c>
       <c r="Z71" t="n">
-        <v>698.89</v>
+        <v>762.77</v>
       </c>
     </row>
     <row r="72">
@@ -7109,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-132.74</v>
+        <v>-74.01</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-52.39</v>
+        <v>26.56</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -7130,49 +7130,49 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1025.62</v>
+        <v>474.42</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>-1.21</v>
+        <v>45.55</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>-85.04</v>
+        <v>-36.67</v>
       </c>
       <c r="Q72" t="n">
-        <v>784.06</v>
+        <v>830.72</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>-48.49</v>
+        <v>-8.29</v>
       </c>
       <c r="T72" t="n">
-        <v>-48.98</v>
+        <v>-2.85</v>
       </c>
       <c r="U72" t="n">
-        <v>1080.35</v>
+        <v>738.02</v>
       </c>
       <c r="V72" t="n">
-        <v>-109.54</v>
+        <v>-66.57</v>
       </c>
       <c r="W72" t="n">
-        <v>188.48</v>
+        <v>244.58</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
       </c>
       <c r="Y72" t="n">
-        <v>-56.47</v>
+        <v>-36.47</v>
       </c>
       <c r="Z72" t="n">
-        <v>1147.37</v>
+        <v>1346.03</v>
       </c>
     </row>
     <row r="73">
@@ -7189,13 +7189,13 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>-104.59</v>
+        <v>-49.58</v>
       </c>
       <c r="F73" t="n">
-        <v>723.78</v>
+        <v>544.97</v>
       </c>
       <c r="G73" t="n">
-        <v>-55.83</v>
+        <v>44.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -7204,55 +7204,55 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>-56.04</v>
+        <v>24.34</v>
       </c>
       <c r="K73" t="n">
-        <v>947.85</v>
+        <v>789.9</v>
       </c>
       <c r="L73" t="n">
-        <v>1144.71</v>
+        <v>910.35</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>130.05</v>
+        <v>186.02</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>-92.86</v>
+        <v>-37.98</v>
       </c>
       <c r="Q73" t="n">
-        <v>724.94</v>
+        <v>788.65</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>-150.06</v>
+        <v>-95.43</v>
       </c>
       <c r="T73" t="n">
-        <v>-98.32</v>
+        <v>-43.89</v>
       </c>
       <c r="U73" t="n">
-        <v>622.67</v>
+        <v>613.15</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>187.73</v>
+        <v>246.77</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
       </c>
       <c r="Y73" t="n">
-        <v>246.75</v>
+        <v>394.83</v>
       </c>
       <c r="Z73" t="n">
-        <v>336.96</v>
+        <v>393.26</v>
       </c>
     </row>
     <row r="74">
@@ -7269,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-111.23</v>
+        <v>-52.49</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-30.29</v>
+        <v>15.82</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -7284,55 +7284,55 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>-57.42</v>
+        <v>19.9</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>776.1</v>
+        <v>719.83</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>111.95</v>
+        <v>206.44</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>-175.66</v>
+        <v>-122.28</v>
       </c>
       <c r="Q74" t="n">
-        <v>68.29</v>
+        <v>153.93</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>-125.48</v>
+        <v>-67.31</v>
       </c>
       <c r="T74" t="n">
-        <v>-126.35</v>
+        <v>-66.24</v>
       </c>
       <c r="U74" t="n">
-        <v>538.67</v>
+        <v>689.5</v>
       </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>74.98</v>
+        <v>165.4</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
       </c>
       <c r="Y74" t="n">
-        <v>117.8</v>
+        <v>300.86</v>
       </c>
       <c r="Z74" t="n">
-        <v>692.98</v>
+        <v>907.1</v>
       </c>
     </row>
     <row r="75">
@@ -7346,16 +7346,16 @@
         <v>161</v>
       </c>
       <c r="D75" t="n">
-        <v>-59.22</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>-80.71</v>
+        <v>-32.95</v>
       </c>
       <c r="F75" t="n">
-        <v>365.92</v>
+        <v>366.45</v>
       </c>
       <c r="G75" t="n">
-        <v>-12.12</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7364,55 +7364,55 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-54.78</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>151.6</v>
+        <v>198.27</v>
       </c>
       <c r="L75" t="n">
-        <v>445.57</v>
+        <v>457.41</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.34</v>
+        <v>44.38</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>-17.92</v>
+        <v>26.83</v>
       </c>
       <c r="Q75" t="n">
-        <v>288.95</v>
+        <v>333.64</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>-66.95</v>
+        <v>-30.22</v>
       </c>
       <c r="T75" t="n">
-        <v>-29.45</v>
+        <v>14.6</v>
       </c>
       <c r="U75" t="n">
-        <v>199.36</v>
+        <v>244.14</v>
       </c>
       <c r="V75" t="n">
-        <v>89.79</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>101.29</v>
+        <v>146.03</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>67.35</v>
+        <v>129.6</v>
       </c>
       <c r="Z75" t="n">
-        <v>-18.32</v>
+        <v>29.84</v>
       </c>
     </row>
     <row r="76">
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-90.08</v>
+        <v>-34.43</v>
       </c>
       <c r="F76" t="n">
-        <v>116.88</v>
+        <v>148.42</v>
       </c>
       <c r="G76" t="n">
-        <v>-37.12</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7444,55 +7444,55 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>-43.72</v>
+        <v>36.36</v>
       </c>
       <c r="K76" t="n">
-        <v>-21.34</v>
+        <v>44.78</v>
       </c>
       <c r="L76" t="n">
-        <v>218.29</v>
+        <v>244.32</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>7.9</v>
+        <v>69.82</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>-29.49</v>
+        <v>32.51</v>
       </c>
       <c r="Q76" t="n">
-        <v>122.67</v>
+        <v>209.87</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>-40.57</v>
+        <v>16.16</v>
       </c>
       <c r="T76" t="n">
-        <v>-55.84</v>
+        <v>-0.72</v>
       </c>
       <c r="U76" t="n">
-        <v>142.15</v>
+        <v>221.97</v>
       </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>57.84</v>
+        <v>124.26</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
       </c>
       <c r="Y76" t="n">
-        <v>120.15</v>
+        <v>370.61</v>
       </c>
       <c r="Z76" t="n">
-        <v>-51.31</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="77">
@@ -7512,10 +7512,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>667.89</v>
+        <v>646.56</v>
       </c>
       <c r="G77" t="n">
-        <v>-19.74</v>
+        <v>77.08</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7530,19 +7530,19 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>560.16</v>
+        <v>462.33</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>19.39</v>
+        <v>76.09</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>-100.33</v>
+        <v>-49.12</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -7551,19 +7551,19 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>-25.91</v>
+        <v>27.24</v>
       </c>
       <c r="T77" t="n">
-        <v>50.09</v>
+        <v>109.5</v>
       </c>
       <c r="U77" t="n">
-        <v>72.5</v>
+        <v>95.31</v>
       </c>
       <c r="V77" t="n">
-        <v>-13.85</v>
+        <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>37.54</v>
+        <v>95.14</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>-63.95</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="78">
@@ -7586,73 +7586,73 @@
         <v>165</v>
       </c>
       <c r="D78" t="n">
-        <v>-121.73</v>
+        <v>-55.51</v>
       </c>
       <c r="E78" t="n">
-        <v>-122.92</v>
+        <v>-78.58</v>
       </c>
       <c r="F78" t="n">
-        <v>201.9</v>
+        <v>213.2</v>
       </c>
       <c r="G78" t="n">
-        <v>-14.84</v>
+        <v>119.26</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-44.11</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>-103.95</v>
+        <v>-27.12</v>
       </c>
       <c r="K78" t="n">
-        <v>196.2</v>
+        <v>341.4</v>
       </c>
       <c r="L78" t="n">
-        <v>781.05</v>
+        <v>698</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>-31.06</v>
+        <v>27.46</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>-142.65</v>
+        <v>-123.15</v>
       </c>
       <c r="Q78" t="n">
-        <v>359.84</v>
+        <v>404.17</v>
       </c>
       <c r="R78" t="n">
-        <v>-117.16</v>
+        <v>-14.63</v>
       </c>
       <c r="S78" t="n">
-        <v>-53.81</v>
+        <v>4.55</v>
       </c>
       <c r="T78" t="n">
-        <v>4.66</v>
+        <v>76.52</v>
       </c>
       <c r="U78" t="n">
-        <v>183.21</v>
+        <v>274.72</v>
       </c>
       <c r="V78" t="n">
-        <v>-35.28</v>
+        <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>86.56</v>
+        <v>194.19</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
       </c>
       <c r="Y78" t="n">
-        <v>-4.44</v>
+        <v>73.24</v>
       </c>
       <c r="Z78" t="n">
-        <v>-67.73</v>
+        <v>-10.52</v>
       </c>
     </row>
     <row r="79">
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.04</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7690,19 +7690,19 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>-70.56</v>
+        <v>0.55</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>-45.4</v>
+        <v>12.3</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>-63.5</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -7711,25 +7711,25 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>-51.15</v>
+        <v>-11.39</v>
       </c>
       <c r="T79" t="n">
-        <v>-47.85</v>
+        <v>9.18</v>
       </c>
       <c r="U79" t="n">
-        <v>-42.91</v>
+        <v>23.3</v>
       </c>
       <c r="V79" t="n">
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>-43.59</v>
+        <v>21.66</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>-9.93</v>
+        <v>0</v>
       </c>
       <c r="Z79" t="n">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>167</v>
       </c>
       <c r="D80" t="n">
-        <v>-14.49</v>
+        <v>113.05</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-34.16</v>
+        <v>138.26</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7770,46 +7770,46 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>1071.83</v>
+        <v>635.05</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>59.81</v>
+        <v>115.18</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>-53.15</v>
+        <v>9.01</v>
       </c>
       <c r="Q80" t="n">
-        <v>1174.51</v>
+        <v>1145.24</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>-66.8</v>
+        <v>-2.24</v>
       </c>
       <c r="T80" t="n">
-        <v>-90.46</v>
+        <v>-24.12</v>
       </c>
       <c r="U80" t="n">
-        <v>387.3</v>
+        <v>252.41</v>
       </c>
       <c r="V80" t="n">
-        <v>-92.46</v>
+        <v>54.03</v>
       </c>
       <c r="W80" t="n">
-        <v>140.87</v>
+        <v>206.65</v>
       </c>
       <c r="X80" t="n">
-        <v>-159.17</v>
+        <v>-58.52</v>
       </c>
       <c r="Y80" t="n">
-        <v>-27.61</v>
+        <v>65.5</v>
       </c>
       <c r="Z80" t="n">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>168</v>
       </c>
       <c r="D81" t="n">
-        <v>-96.18</v>
+        <v>-79.12</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.91</v>
+        <v>177.05</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7850,46 +7850,46 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1347.63</v>
+        <v>818.25</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>335.32</v>
+        <v>387.64</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>17.76</v>
+        <v>78.89</v>
       </c>
       <c r="Q81" t="n">
-        <v>527.33</v>
+        <v>565.09</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>-51.02</v>
+        <v>12.34</v>
       </c>
       <c r="T81" t="n">
-        <v>-7.8</v>
+        <v>71.23</v>
       </c>
       <c r="U81" t="n">
-        <v>847.02</v>
+        <v>645.96</v>
       </c>
       <c r="V81" t="n">
-        <v>-30.33</v>
+        <v>136.39</v>
       </c>
       <c r="W81" t="n">
-        <v>165.83</v>
+        <v>236.16</v>
       </c>
       <c r="X81" t="n">
-        <v>-149.99</v>
+        <v>-59.75</v>
       </c>
       <c r="Y81" t="n">
-        <v>1015.09</v>
+        <v>1869.24</v>
       </c>
       <c r="Z81" t="n">
         <v>0</v>
@@ -7930,19 +7930,19 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>-223.62</v>
+        <v>-38.92</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>-71.52</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>-79.19</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7954,16 +7954,16 @@
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>-78.29</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>-74.44</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>-69.64</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
         <v>0</v>
@@ -7992,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>183.11</v>
+        <v>204.9</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.57</v>
+        <v>101.42</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -8007,22 +8007,22 @@
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>44.09</v>
+        <v>105.71</v>
       </c>
       <c r="L83" t="n">
-        <v>426.47</v>
+        <v>354.63</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.14</v>
+        <v>62.11</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>-75.7</v>
+        <v>-35.6</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -8031,19 +8031,19 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>-37.32</v>
+        <v>13.61</v>
       </c>
       <c r="T83" t="n">
-        <v>30.51</v>
+        <v>102.39</v>
       </c>
       <c r="U83" t="n">
-        <v>34.22</v>
+        <v>74.97</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>30.57</v>
+        <v>102.42</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="Z83" t="n">
-        <v>-84.77</v>
+        <v>-18.92</v>
       </c>
     </row>
     <row r="84">
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-59.71</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-17.46</v>
+        <v>58.86</v>
       </c>
       <c r="G84" t="n">
-        <v>-37.05</v>
+        <v>45.35</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -8084,55 +8084,55 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>-26.33</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>-46.45</v>
+        <v>46.45</v>
       </c>
       <c r="L84" t="n">
-        <v>361.33</v>
+        <v>312.07</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>2.94</v>
+        <v>81.21</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>-75.97</v>
+        <v>-38.51</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>-65.04</v>
+        <v>-20.14</v>
       </c>
       <c r="T84" t="n">
-        <v>-58.3</v>
+        <v>-8.44</v>
       </c>
       <c r="U84" t="n">
-        <v>84.82</v>
+        <v>164.67</v>
       </c>
       <c r="V84" t="n">
-        <v>-42.86</v>
+        <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>-14.02</v>
+        <v>52.88</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
       </c>
       <c r="Y84" t="n">
-        <v>-7.38</v>
+        <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>-76.06</v>
+        <v>-20.11</v>
       </c>
     </row>
     <row r="85">
@@ -8146,16 +8146,16 @@
         <v>172</v>
       </c>
       <c r="D85" t="n">
-        <v>-15.51</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-116.06</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>-269.24</v>
+        <v>-70.85</v>
       </c>
       <c r="G85" t="n">
-        <v>132.25</v>
+        <v>297.32</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8164,55 +8164,55 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-15.55</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>-73.15</v>
+        <v>27.06</v>
       </c>
       <c r="L85" t="n">
-        <v>2914.16</v>
+        <v>849.03</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>488.97</v>
+        <v>530.16</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>124.27</v>
+        <v>168.3</v>
       </c>
       <c r="Q85" t="n">
-        <v>709.69</v>
+        <v>724.8</v>
       </c>
       <c r="R85" t="n">
-        <v>-15.48</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>70.41</v>
+        <v>91.92</v>
       </c>
       <c r="T85" t="n">
-        <v>122.99</v>
+        <v>210.59</v>
       </c>
       <c r="U85" t="n">
-        <v>2308.33</v>
+        <v>792.01</v>
       </c>
       <c r="V85" t="n">
-        <v>18.88</v>
+        <v>141.52</v>
       </c>
       <c r="W85" t="n">
-        <v>249.55</v>
+        <v>330.88</v>
       </c>
       <c r="X85" t="n">
-        <v>-129.33</v>
+        <v>-63.34</v>
       </c>
       <c r="Y85" t="n">
-        <v>753.74</v>
+        <v>2128.4</v>
       </c>
       <c r="Z85" t="n">
-        <v>-110.02</v>
+        <v>-37.99</v>
       </c>
     </row>
     <row r="86">
@@ -8226,16 +8226,16 @@
         <v>173</v>
       </c>
       <c r="D86" t="n">
-        <v>-61.43</v>
+        <v>-39.62</v>
       </c>
       <c r="E86" t="n">
-        <v>-109.02</v>
+        <v>-66.69</v>
       </c>
       <c r="F86" t="n">
-        <v>-24.21</v>
+        <v>47.13</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.8</v>
+        <v>153.45</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8244,55 +8244,55 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-62.6</v>
+        <v>-46.8</v>
       </c>
       <c r="K86" t="n">
-        <v>-59.01</v>
+        <v>7.68</v>
       </c>
       <c r="L86" t="n">
-        <v>974.42</v>
+        <v>459.8</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>48.64</v>
+        <v>112.63</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>-68.91</v>
+        <v>-9.68</v>
       </c>
       <c r="Q86" t="n">
-        <v>135.58</v>
+        <v>262.65</v>
       </c>
       <c r="R86" t="n">
-        <v>-60.62</v>
+        <v>-39.41</v>
       </c>
       <c r="S86" t="n">
-        <v>-48.85</v>
+        <v>5.26</v>
       </c>
       <c r="T86" t="n">
-        <v>-58.11</v>
+        <v>8.56</v>
       </c>
       <c r="U86" t="n">
-        <v>432.19</v>
+        <v>269.94</v>
       </c>
       <c r="V86" t="n">
-        <v>36.47</v>
+        <v>290.44</v>
       </c>
       <c r="W86" t="n">
-        <v>115.02</v>
+        <v>194.8</v>
       </c>
       <c r="X86" t="n">
-        <v>-126.97</v>
+        <v>-56.24</v>
       </c>
       <c r="Y86" t="n">
-        <v>-41.39</v>
+        <v>34</v>
       </c>
       <c r="Z86" t="n">
-        <v>-92.1</v>
+        <v>-37.68</v>
       </c>
     </row>
     <row r="87">
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>-217.92</v>
+        <v>-57.58</v>
       </c>
       <c r="G87" t="n">
-        <v>63.98</v>
+        <v>258.58</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8330,46 +8330,46 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>1329.96</v>
+        <v>612.26</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>197.43</v>
+        <v>318.43</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>82.65</v>
+        <v>164.13</v>
       </c>
       <c r="Q87" t="n">
-        <v>829.28</v>
+        <v>856.66</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>20.43</v>
+        <v>97.23</v>
       </c>
       <c r="T87" t="n">
-        <v>112.77</v>
+        <v>185.01</v>
       </c>
       <c r="U87" t="n">
-        <v>1146.27</v>
+        <v>772.47</v>
       </c>
       <c r="V87" t="n">
-        <v>78.18</v>
+        <v>227.3</v>
       </c>
       <c r="W87" t="n">
-        <v>135.65</v>
+        <v>242.47</v>
       </c>
       <c r="X87" t="n">
-        <v>-139.95</v>
+        <v>-69.28</v>
       </c>
       <c r="Y87" t="n">
-        <v>899.49</v>
+        <v>1690.87</v>
       </c>
       <c r="Z87" t="n">
         <v>0</v>
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>-156.42</v>
+        <v>-21.08</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.12</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8410,19 +8410,19 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>-65.24</v>
+        <v>8.59</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>-28.04</v>
+        <v>15.28</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>-49.66</v>
+        <v>-18.85</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -8431,19 +8431,19 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>-43.13</v>
+        <v>-16.63</v>
       </c>
       <c r="T88" t="n">
-        <v>-48.07</v>
+        <v>-27.31</v>
       </c>
       <c r="U88" t="n">
-        <v>-19.43</v>
+        <v>33.5</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>-27.73</v>
+        <v>15.23</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>-33.33</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>-22.12</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>-16.42</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>-26.56</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>-34.84</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>-18.38</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>-22.7</v>
+        <v>-12.02</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>-11.53</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>-24.94</v>
+        <v>-12.02</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>-41.99</v>
+        <v>-22.73</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -9112,64 +9112,64 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>87.79</v>
+        <v>228.61</v>
       </c>
       <c r="G97" t="n">
-        <v>-23.33</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>-4.92</v>
+        <v>18.65</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>-31.31</v>
+        <v>-19.92</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>-22.54</v>
+        <v>-7.42</v>
       </c>
       <c r="M97" t="n">
-        <v>-3.96</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>-30.48</v>
+        <v>-25.29</v>
       </c>
       <c r="O97" t="n">
-        <v>5.16</v>
+        <v>38.74</v>
       </c>
       <c r="P97" t="n">
-        <v>-31.76</v>
+        <v>-41.14</v>
       </c>
       <c r="Q97" t="n">
-        <v>218.94</v>
+        <v>476.46</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>-35.67</v>
+        <v>-40.32</v>
       </c>
       <c r="T97" t="n">
-        <v>-38.97</v>
+        <v>-43.42</v>
       </c>
       <c r="U97" t="n">
-        <v>-17.39</v>
+        <v>20.56</v>
       </c>
       <c r="V97" t="n">
-        <v>-18.78</v>
+        <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>-26.89</v>
+        <v>-18.42</v>
       </c>
       <c r="X97" t="n">
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>-19.45</v>
+        <v>0</v>
       </c>
       <c r="Z97" t="n">
         <v>0</v>
@@ -9186,7 +9186,7 @@
         <v>186</v>
       </c>
       <c r="D98" t="n">
-        <v>-9.88</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -9204,25 +9204,25 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>-10.04</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>-23.2</v>
+        <v>24.45</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>-14.43</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>-19.76</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -9231,25 +9231,25 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>-20.08</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>-21.28</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>-17.08</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
         <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>-16.64</v>
+        <v>0</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
       </c>
       <c r="Y98" t="n">
-        <v>-3.83</v>
+        <v>0</v>
       </c>
       <c r="Z98" t="n">
         <v>0</v>
@@ -9272,13 +9272,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>-10.94</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>-11.31</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -9290,19 +9290,19 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>-29.53</v>
+        <v>-0.44</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>-37.9</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>-10.23</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>-39.49</v>
+        <v>0</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -9311,19 +9311,19 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>-39.42</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>-40.52</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>-39.12</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>-39.84</v>
+        <v>0</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.28</v>
+        <v>349.58</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9370,40 +9370,40 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>308.67</v>
+        <v>376.25</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>41.28</v>
+        <v>119.84</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>-31.44</v>
+        <v>26.71</v>
       </c>
       <c r="Q100" t="n">
-        <v>10.44</v>
+        <v>79.74</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>-20.23</v>
+        <v>41.04</v>
       </c>
       <c r="T100" t="n">
-        <v>-70.03</v>
+        <v>-22.56</v>
       </c>
       <c r="U100" t="n">
-        <v>57.51</v>
+        <v>150.49</v>
       </c>
       <c r="V100" t="n">
         <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>7.99</v>
+        <v>77.94</v>
       </c>
       <c r="X100" t="n">
         <v>0</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-30.85</v>
+        <v>90.81</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9450,46 +9450,46 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>194.57</v>
+        <v>244.67</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>-6.84</v>
+        <v>73.98</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>-67.76</v>
+        <v>4.79</v>
       </c>
       <c r="Q101" t="n">
-        <v>39.53</v>
+        <v>107.71</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>-48.8</v>
+        <v>13.25</v>
       </c>
       <c r="T101" t="n">
-        <v>-94.69</v>
+        <v>-50.27</v>
       </c>
       <c r="U101" t="n">
-        <v>56.91</v>
+        <v>152.97</v>
       </c>
       <c r="V101" t="n">
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>-22.01</v>
+        <v>51.53</v>
       </c>
       <c r="X101" t="n">
         <v>0</v>
       </c>
       <c r="Y101" t="n">
-        <v>303.95</v>
+        <v>1331.63</v>
       </c>
       <c r="Z101" t="n">
         <v>0</v>
@@ -9512,64 +9512,64 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>12.39</v>
+        <v>81.03</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.51</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>-38.55</v>
+        <v>-22.11</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>-30.7</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>-36.15</v>
+        <v>-20.17</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>-26.67</v>
+        <v>-24.94</v>
       </c>
       <c r="O102" t="n">
-        <v>-29.63</v>
+        <v>-5.71</v>
       </c>
       <c r="P102" t="n">
-        <v>-23.55</v>
+        <v>-34.42</v>
       </c>
       <c r="Q102" t="n">
-        <v>89.53</v>
+        <v>420.68</v>
       </c>
       <c r="R102" t="n">
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>-27.45</v>
+        <v>-32.75</v>
       </c>
       <c r="T102" t="n">
-        <v>-29.98</v>
+        <v>-35.58</v>
       </c>
       <c r="U102" t="n">
-        <v>-18.9</v>
+        <v>2.67</v>
       </c>
       <c r="V102" t="n">
-        <v>-12.82</v>
+        <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>-25.6</v>
+        <v>-24.94</v>
       </c>
       <c r="X102" t="n">
         <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>-12.78</v>
+        <v>0</v>
       </c>
       <c r="Z102" t="n">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>-20.26</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9610,40 +9610,40 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>61.03</v>
+        <v>122.65</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>-27.28</v>
+        <v>18.08</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>-31.53</v>
+        <v>4.62</v>
       </c>
       <c r="Q103" t="n">
-        <v>-1.08</v>
+        <v>86.39</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>-34.61</v>
+        <v>2.31</v>
       </c>
       <c r="T103" t="n">
-        <v>-52.02</v>
+        <v>-37.53</v>
       </c>
       <c r="U103" t="n">
-        <v>-8.47</v>
+        <v>62.78</v>
       </c>
       <c r="V103" t="n">
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>-24.44</v>
+        <v>25.68</v>
       </c>
       <c r="X103" t="n">
         <v>0</v>
@@ -9666,73 +9666,73 @@
         <v>192</v>
       </c>
       <c r="D104" t="n">
-        <v>-16.18</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-40.24</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>-8.68</v>
+        <v>54.2</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>-35.64</v>
+        <v>-34.41</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-9.32</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>-19.76</v>
+        <v>17.05</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>-12.14</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>-28.4</v>
+        <v>-7.35</v>
       </c>
       <c r="P104" t="n">
-        <v>-14.06</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>-4.64</v>
+        <v>0</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>-14.59</v>
+        <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>-14.62</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>-13.27</v>
+        <v>0</v>
       </c>
       <c r="V104" t="n">
         <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>-11.39</v>
+        <v>0</v>
       </c>
       <c r="X104" t="n">
         <v>0</v>
       </c>
       <c r="Y104" t="n">
-        <v>-8.84</v>
+        <v>0</v>
       </c>
       <c r="Z104" t="n">
-        <v>-26.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-25.31</v>
+        <v>74.12</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -9770,40 +9770,40 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>193.09</v>
+        <v>282.48</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>19.51</v>
+        <v>98.35</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>-32.17</v>
+        <v>8.56</v>
       </c>
       <c r="Q105" t="n">
-        <v>-2.87</v>
+        <v>48.91</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>-38.54</v>
+        <v>-3.83</v>
       </c>
       <c r="T105" t="n">
-        <v>-56.62</v>
+        <v>-35.43</v>
       </c>
       <c r="U105" t="n">
-        <v>10.73</v>
+        <v>84.46</v>
       </c>
       <c r="V105" t="n">
         <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>-3.36</v>
+        <v>57.02</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>-122.02</v>
+        <v>-41.92</v>
       </c>
       <c r="G106" t="n">
-        <v>-80.15</v>
+        <v>39.04</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -9850,19 +9850,19 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>20.21</v>
+        <v>130.09</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>-54.92</v>
+        <v>-15.5</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>-46.9</v>
+        <v>51.02</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -9871,19 +9871,19 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>-68.7</v>
+        <v>-5.62</v>
       </c>
       <c r="T106" t="n">
-        <v>-62.29</v>
+        <v>-43.51</v>
       </c>
       <c r="U106" t="n">
-        <v>11.43</v>
+        <v>210.73</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
       </c>
       <c r="W106" t="n">
-        <v>-16.46</v>
+        <v>192.65</v>
       </c>
       <c r="X106" t="n">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>80.93</v>
+        <v>191.27</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -9930,22 +9930,22 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>9622.24</v>
+        <v>2324.24</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>3327.63</v>
+        <v>2492.26</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>-251.15</v>
+        <v>-214.96</v>
       </c>
       <c r="Q107" t="n">
-        <v>704.43</v>
+        <v>556.66</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -9954,16 +9954,16 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>-428.79</v>
+        <v>-382.6</v>
       </c>
       <c r="U107" t="n">
-        <v>8539.69</v>
+        <v>2943.65</v>
       </c>
       <c r="V107" t="n">
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>824.51</v>
+        <v>866.55</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Z107" t="n">
-        <v>10194.96</v>
+        <v>7603.83</v>
       </c>
     </row>
     <row r="108">
@@ -9995,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-108.85</v>
+        <v>58.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -10010,40 +10010,40 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>2085.67</v>
+        <v>1186.46</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>8.74</v>
+        <v>100.18</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>-59.68</v>
+        <v>29.93</v>
       </c>
       <c r="Q108" t="n">
-        <v>991.33</v>
+        <v>1282.72</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>-132.17</v>
+        <v>-50.34</v>
       </c>
       <c r="T108" t="n">
-        <v>75.9</v>
+        <v>176.49</v>
       </c>
       <c r="U108" t="n">
-        <v>692.26</v>
+        <v>580.78</v>
       </c>
       <c r="V108" t="n">
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>18.51</v>
+        <v>112.51</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -10075,7 +10075,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>339.23</v>
+        <v>464.04</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -10090,40 +10090,40 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>6970.52</v>
+        <v>2464.52</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1302.47</v>
+        <v>1081.14</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>617.11</v>
+        <v>499.14</v>
       </c>
       <c r="Q109" t="n">
-        <v>2382.27</v>
+        <v>1970.12</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>607.29</v>
+        <v>492.06</v>
       </c>
       <c r="T109" t="n">
-        <v>375.86</v>
+        <v>289.3</v>
       </c>
       <c r="U109" t="n">
-        <v>4193.67</v>
+        <v>2108.02</v>
       </c>
       <c r="V109" t="n">
-        <v>-254.7</v>
+        <v>-133.85</v>
       </c>
       <c r="W109" t="n">
-        <v>1300.45</v>
+        <v>1273.42</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Z109" t="n">
-        <v>3017.93</v>
+        <v>3071.99</v>
       </c>
     </row>
     <row r="110">
@@ -10149,13 +10149,13 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-185.56</v>
+        <v>-112.01</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>-26.14</v>
+        <v>116.04</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -10170,40 +10170,40 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>4159.98</v>
+        <v>2070.2</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>388.22</v>
+        <v>469.78</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>149.82</v>
+        <v>215.28</v>
       </c>
       <c r="Q110" t="n">
-        <v>1416.87</v>
+        <v>1524.75</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>200.14</v>
+        <v>256.77</v>
       </c>
       <c r="T110" t="n">
-        <v>-150.53</v>
+        <v>-95.59</v>
       </c>
       <c r="U110" t="n">
-        <v>1563.13</v>
+        <v>971.67</v>
       </c>
       <c r="V110" t="n">
-        <v>-246.86</v>
+        <v>-105.86</v>
       </c>
       <c r="W110" t="n">
-        <v>710.05</v>
+        <v>831.31</v>
       </c>
       <c r="X110" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="Z110" t="n">
-        <v>1720.88</v>
+        <v>1794.43</v>
       </c>
     </row>
     <row r="111">
@@ -10232,10 +10232,10 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>4775.15</v>
+        <v>522.3</v>
       </c>
       <c r="G111" t="n">
-        <v>-27.2</v>
+        <v>141.72</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -10250,40 +10250,40 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>4130.11</v>
+        <v>1489.63</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>252.09</v>
+        <v>323.71</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>71.24</v>
+        <v>118.1</v>
       </c>
       <c r="Q111" t="n">
-        <v>1252.19</v>
+        <v>1629.41</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>-25.85</v>
+        <v>33.93</v>
       </c>
       <c r="T111" t="n">
-        <v>338.2</v>
+        <v>438.8</v>
       </c>
       <c r="U111" t="n">
-        <v>1721.14</v>
+        <v>996.86</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>275.79</v>
+        <v>388.85</v>
       </c>
       <c r="X111" t="n">
         <v>0</v>
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="Z111" t="n">
-        <v>5093.4</v>
+        <v>4864.52</v>
       </c>
     </row>
     <row r="112">
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-96.49</v>
+        <v>42.84</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -10324,52 +10324,52 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-62.56</v>
+        <v>-33.27</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1646.43</v>
+        <v>1096.23</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0.74</v>
+        <v>80.56</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>28.8</v>
+        <v>107.3</v>
       </c>
       <c r="Q112" t="n">
-        <v>646.64</v>
+        <v>743.87</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>-70.47</v>
+        <v>6.97</v>
       </c>
       <c r="T112" t="n">
-        <v>-183.99</v>
+        <v>-116.91</v>
       </c>
       <c r="U112" t="n">
-        <v>1576.01</v>
+        <v>1400.87</v>
       </c>
       <c r="V112" t="n">
         <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>209.94</v>
+        <v>307.49</v>
       </c>
       <c r="X112" t="n">
         <v>0</v>
       </c>
       <c r="Y112" t="n">
-        <v>-38.75</v>
+        <v>113.61</v>
       </c>
       <c r="Z112" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>202</v>
       </c>
       <c r="D113" t="n">
-        <v>-77.15</v>
+        <v>-49.99</v>
       </c>
       <c r="E113" t="n">
-        <v>-113.79</v>
+        <v>-58.34</v>
       </c>
       <c r="F113" t="n">
-        <v>1237.53</v>
+        <v>529.6</v>
       </c>
       <c r="G113" t="n">
-        <v>80.84</v>
+        <v>219.44</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -10404,55 +10404,55 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>-71.52</v>
+        <v>-41.12</v>
       </c>
       <c r="K113" t="n">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="L113" t="n">
-        <v>5343.19</v>
+        <v>1296.52</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>47.68</v>
+        <v>90.67</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>369.69</v>
+        <v>406.18</v>
       </c>
       <c r="Q113" t="n">
-        <v>1571.05</v>
+        <v>1566.61</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>183.75</v>
+        <v>222.01</v>
       </c>
       <c r="T113" t="n">
-        <v>-77.1</v>
+        <v>-30.88</v>
       </c>
       <c r="U113" t="n">
-        <v>2280.69</v>
+        <v>1344.62</v>
       </c>
       <c r="V113" t="n">
-        <v>-194.49</v>
+        <v>-102.98</v>
       </c>
       <c r="W113" t="n">
-        <v>722.62</v>
+        <v>778.93</v>
       </c>
       <c r="X113" t="n">
         <v>0</v>
       </c>
       <c r="Y113" t="n">
-        <v>111.81</v>
+        <v>262.27</v>
       </c>
       <c r="Z113" t="n">
-        <v>150.73</v>
+        <v>200.64</v>
       </c>
     </row>
     <row r="114">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>31.13</v>
+        <v>157.22</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -10490,40 +10490,40 @@
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>8026.18</v>
+        <v>1832.9</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>1680.95</v>
+        <v>1184.28</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>19.08</v>
+        <v>96.54</v>
       </c>
       <c r="Q114" t="n">
-        <v>626.58</v>
+        <v>385.52</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>-98.03</v>
+        <v>-7.96</v>
       </c>
       <c r="T114" t="n">
-        <v>-173.53</v>
+        <v>-80.03</v>
       </c>
       <c r="U114" t="n">
-        <v>8767.35</v>
+        <v>2654.73</v>
       </c>
       <c r="V114" t="n">
-        <v>-250.25</v>
+        <v>-101.74</v>
       </c>
       <c r="W114" t="n">
-        <v>477.41</v>
+        <v>521.5</v>
       </c>
       <c r="X114" t="n">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="Z114" t="n">
-        <v>10796.64</v>
+        <v>7470.35</v>
       </c>
     </row>
     <row r="115">
@@ -10552,10 +10552,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1834.86</v>
+        <v>543.34</v>
       </c>
       <c r="G115" t="n">
-        <v>167.86</v>
+        <v>309.73</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -10567,43 +10567,43 @@
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>1310.69</v>
+        <v>1157.56</v>
       </c>
       <c r="L115" t="n">
-        <v>7147.52</v>
+        <v>2144.16</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>518.48</v>
+        <v>527.77</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>296.38</v>
+        <v>321.15</v>
       </c>
       <c r="Q115" t="n">
-        <v>1686.34</v>
+        <v>1620.43</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>231.44</v>
+        <v>252.96</v>
       </c>
       <c r="T115" t="n">
-        <v>59.42</v>
+        <v>92.09</v>
       </c>
       <c r="U115" t="n">
-        <v>2888.5</v>
+        <v>1438.88</v>
       </c>
       <c r="V115" t="n">
-        <v>-227.43</v>
+        <v>-110.74</v>
       </c>
       <c r="W115" t="n">
-        <v>765.21</v>
+        <v>820.68</v>
       </c>
       <c r="X115" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Z115" t="n">
-        <v>235.67</v>
+        <v>282.58</v>
       </c>
     </row>
     <row r="116">
@@ -10632,10 +10632,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>-100</v>
+        <v>-20.15</v>
       </c>
       <c r="G116" t="n">
-        <v>-121.45</v>
+        <v>28.06</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10650,40 +10650,40 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>888.76</v>
+        <v>1029.29</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>-59.94</v>
+        <v>22.76</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>-79.29</v>
+        <v>-6.22</v>
       </c>
       <c r="Q116" t="n">
-        <v>639.42</v>
+        <v>706.27</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>-124.42</v>
+        <v>-64.9</v>
       </c>
       <c r="T116" t="n">
-        <v>-112.54</v>
+        <v>-55.37</v>
       </c>
       <c r="U116" t="n">
-        <v>1439.28</v>
+        <v>1815.26</v>
       </c>
       <c r="V116" t="n">
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>80.44</v>
+        <v>214.9</v>
       </c>
       <c r="X116" t="n">
         <v>0</v>
